--- a/SchedulingData/dynamic16/pso/scheduling2_14.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,515 +462,515 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>259.84</v>
+        <v>246.1</v>
       </c>
       <c r="D2" t="n">
-        <v>316.24</v>
+        <v>297.98</v>
       </c>
       <c r="E2" t="n">
-        <v>10.056</v>
+        <v>11.392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>238.94</v>
+        <v>218.32</v>
       </c>
       <c r="D3" t="n">
-        <v>313.24</v>
+        <v>283.4</v>
       </c>
       <c r="E3" t="n">
-        <v>11.796</v>
+        <v>14.78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>316.24</v>
+        <v>220.46</v>
       </c>
       <c r="D4" t="n">
-        <v>359.28</v>
+        <v>296.7</v>
       </c>
       <c r="E4" t="n">
-        <v>7.372</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>224.16</v>
+        <v>297.98</v>
       </c>
       <c r="D5" t="n">
-        <v>280.18</v>
+        <v>359.98</v>
       </c>
       <c r="E5" t="n">
-        <v>11.172</v>
+        <v>7.792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>228.08</v>
+        <v>296.7</v>
       </c>
       <c r="D6" t="n">
-        <v>278.16</v>
+        <v>343.5</v>
       </c>
       <c r="E6" t="n">
-        <v>12.344</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>224.66</v>
+        <v>265.08</v>
       </c>
       <c r="D7" t="n">
-        <v>294.02</v>
+        <v>319.98</v>
       </c>
       <c r="E7" t="n">
-        <v>12.748</v>
+        <v>11.132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>359.28</v>
+        <v>359.98</v>
       </c>
       <c r="D8" t="n">
-        <v>425.26</v>
+        <v>425.38</v>
       </c>
       <c r="E8" t="n">
-        <v>4.864</v>
+        <v>3.892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>313.24</v>
+        <v>319.98</v>
       </c>
       <c r="D9" t="n">
-        <v>374.88</v>
+        <v>377.76</v>
       </c>
       <c r="E9" t="n">
-        <v>8.772</v>
+        <v>6.484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>294.02</v>
+        <v>263.74</v>
       </c>
       <c r="D10" t="n">
-        <v>349.2</v>
+        <v>318.92</v>
       </c>
       <c r="E10" t="n">
-        <v>8.859999999999999</v>
+        <v>7.448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>278.16</v>
+        <v>377.76</v>
       </c>
       <c r="D11" t="n">
-        <v>339.02</v>
+        <v>462.18</v>
       </c>
       <c r="E11" t="n">
-        <v>8.888</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>349.2</v>
+        <v>462.18</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4</v>
+        <v>539.74</v>
       </c>
       <c r="E12" t="n">
-        <v>5.34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>280.18</v>
+        <v>539.74</v>
       </c>
       <c r="D13" t="n">
-        <v>329.98</v>
+        <v>580.54</v>
       </c>
       <c r="E13" t="n">
-        <v>7.812</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>268.26</v>
+        <v>222.12</v>
       </c>
       <c r="D14" t="n">
-        <v>323.46</v>
+        <v>275.54</v>
       </c>
       <c r="E14" t="n">
-        <v>11.724</v>
+        <v>11.136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>425.26</v>
+        <v>318.92</v>
       </c>
       <c r="D15" t="n">
-        <v>470.36</v>
+        <v>372.22</v>
       </c>
       <c r="E15" t="n">
-        <v>1.484</v>
+        <v>4.728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>470.36</v>
+        <v>275.54</v>
       </c>
       <c r="D16" t="n">
-        <v>534.39</v>
+        <v>327.5</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>410.4</v>
+        <v>580.54</v>
       </c>
       <c r="D17" t="n">
-        <v>454.16</v>
+        <v>647.64</v>
       </c>
       <c r="E17" t="n">
-        <v>2.584</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>374.88</v>
+        <v>327.5</v>
       </c>
       <c r="D18" t="n">
-        <v>417.48</v>
+        <v>393.7</v>
       </c>
       <c r="E18" t="n">
-        <v>6.132</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>323.46</v>
+        <v>393.7</v>
       </c>
       <c r="D19" t="n">
-        <v>377.06</v>
+        <v>435.18</v>
       </c>
       <c r="E19" t="n">
-        <v>8.484</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>329.98</v>
+        <v>435.18</v>
       </c>
       <c r="D20" t="n">
-        <v>388.52</v>
+        <v>509.02</v>
       </c>
       <c r="E20" t="n">
-        <v>4.068</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>534.39</v>
+        <v>283.4</v>
       </c>
       <c r="D21" t="n">
-        <v>601.29</v>
+        <v>341.6</v>
       </c>
       <c r="E21" t="n">
-        <v>26.46</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>339.02</v>
+        <v>343.5</v>
       </c>
       <c r="D22" t="n">
-        <v>410.58</v>
+        <v>400.1</v>
       </c>
       <c r="E22" t="n">
-        <v>4.832</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>454.16</v>
+        <v>400.1</v>
       </c>
       <c r="D23" t="n">
-        <v>525.79</v>
+        <v>457.98</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525.79</v>
+        <v>457.98</v>
       </c>
       <c r="D24" t="n">
-        <v>590.25</v>
+        <v>539.14</v>
       </c>
       <c r="E24" t="n">
-        <v>25.744</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>417.48</v>
+        <v>647.64</v>
       </c>
       <c r="D25" t="n">
-        <v>497.58</v>
+        <v>688.58</v>
       </c>
       <c r="E25" t="n">
-        <v>2.232</v>
+        <v>21.016</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>601.29</v>
+        <v>372.22</v>
       </c>
       <c r="D26" t="n">
-        <v>643.95</v>
+        <v>430.32</v>
       </c>
       <c r="E26" t="n">
-        <v>23.324</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>388.52</v>
+        <v>430.32</v>
       </c>
       <c r="D27" t="n">
-        <v>444.88</v>
+        <v>497.22</v>
       </c>
       <c r="E27" t="n">
-        <v>1.032</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>444.88</v>
+        <v>539.14</v>
       </c>
       <c r="D28" t="n">
-        <v>544.22</v>
+        <v>596.5</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>377.06</v>
+        <v>497.22</v>
       </c>
       <c r="D29" t="n">
-        <v>463.52</v>
+        <v>545.62</v>
       </c>
       <c r="E29" t="n">
-        <v>4.428</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>463.52</v>
+        <v>509.02</v>
       </c>
       <c r="D30" t="n">
-        <v>532.9400000000001</v>
+        <v>557.02</v>
       </c>
       <c r="E30" t="n">
-        <v>0.116</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>532.9400000000001</v>
+        <v>688.58</v>
       </c>
       <c r="D31" t="n">
-        <v>614.61</v>
+        <v>733.48</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>18.156</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>410.58</v>
+        <v>545.62</v>
       </c>
       <c r="D32" t="n">
-        <v>491.5</v>
+        <v>611.66</v>
       </c>
       <c r="E32" t="n">
-        <v>0.36</v>
+        <v>23.336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>491.5</v>
+        <v>611.66</v>
       </c>
       <c r="D33" t="n">
-        <v>597.28</v>
+        <v>680.36</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>20.096</v>
       </c>
     </row>
     <row r="34">
@@ -1078,32 +1078,32 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>614.61</v>
+        <v>680.36</v>
       </c>
       <c r="D34" t="n">
-        <v>667.3099999999999</v>
+        <v>727.76</v>
       </c>
       <c r="E34" t="n">
-        <v>27.88</v>
+        <v>17.976</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>590.25</v>
+        <v>341.6</v>
       </c>
       <c r="D35" t="n">
-        <v>633.67</v>
+        <v>384.2</v>
       </c>
       <c r="E35" t="n">
-        <v>22.532</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="36">
@@ -1112,131 +1112,131 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>497.58</v>
+        <v>596.5</v>
       </c>
       <c r="D36" t="n">
-        <v>599.42</v>
+        <v>633</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>23.424</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>599.42</v>
+        <v>425.38</v>
       </c>
       <c r="D37" t="n">
-        <v>653.22</v>
+        <v>497.58</v>
       </c>
       <c r="E37" t="n">
-        <v>25.32</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>597.28</v>
+        <v>497.58</v>
       </c>
       <c r="D38" t="n">
-        <v>660.88</v>
+        <v>568.98</v>
       </c>
       <c r="E38" t="n">
-        <v>25.32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>544.22</v>
+        <v>568.98</v>
       </c>
       <c r="D39" t="n">
-        <v>586.52</v>
+        <v>618.4</v>
       </c>
       <c r="E39" t="n">
-        <v>26.96</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>660.88</v>
+        <v>384.2</v>
       </c>
       <c r="D40" t="n">
-        <v>726.52</v>
+        <v>460.22</v>
       </c>
       <c r="E40" t="n">
-        <v>22.356</v>
+        <v>2.988</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>667.3099999999999</v>
+        <v>460.22</v>
       </c>
       <c r="D41" t="n">
-        <v>729.51</v>
+        <v>545.9400000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>24.28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>653.22</v>
+        <v>545.9400000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>710</v>
+        <v>624.0599999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>22.252</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="43">
@@ -1245,93 +1245,74 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>633.67</v>
+        <v>618.4</v>
       </c>
       <c r="D43" t="n">
-        <v>712.97</v>
+        <v>677.14</v>
       </c>
       <c r="E43" t="n">
-        <v>19.672</v>
+        <v>23.484</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>586.52</v>
+        <v>677.14</v>
       </c>
       <c r="D44" t="n">
-        <v>648.8200000000001</v>
+        <v>716.1</v>
       </c>
       <c r="E44" t="n">
-        <v>23.36</v>
+        <v>20.728</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>643.95</v>
+        <v>633</v>
       </c>
       <c r="D45" t="n">
-        <v>691.65</v>
+        <v>690.74</v>
       </c>
       <c r="E45" t="n">
-        <v>20.684</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>710</v>
+        <v>557.02</v>
       </c>
       <c r="D46" t="n">
-        <v>755.86</v>
+        <v>619.42</v>
       </c>
       <c r="E46" t="n">
-        <v>18.796</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>pond43</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>726.52</v>
-      </c>
-      <c r="D47" t="n">
-        <v>779.0599999999999</v>
-      </c>
-      <c r="E47" t="n">
-        <v>19.232</v>
+        <v>22.8</v>
       </c>
     </row>
   </sheetData>
